--- a/JobAlert.xlsx
+++ b/JobAlert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learn\Projects\Focux\Focux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD733941-59D1-4A10-9CD1-EF45DCC73E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64478975-275D-41E8-9312-83567028DF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,6 +554,9 @@
       <c r="G2" t="s">
         <v>20</v>
       </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -574,6 +577,9 @@
       <c r="G3" t="s">
         <v>17</v>
       </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -587,6 +593,9 @@
       </c>
       <c r="G4" t="s">
         <v>22</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
